--- a/data/CASTRO ALCIVAR EDA MARIA.xlsx
+++ b/data/CASTRO ALCIVAR EDA MARIA.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="VENTAS POR GRUPO" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="VENTA MENSUAL" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CUMPLIMIENTO MENSUAL" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -64,14 +65,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3080,62 +3081,62 @@
       </c>
     </row>
     <row r="55">
-      <c r="C55" s="4" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>1 de 53</t>
         </is>
       </c>
-      <c r="D55" s="4" t="inlineStr">
+      <c r="D55" s="3" t="inlineStr">
         <is>
           <t>0 de 53</t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr">
+      <c r="E55" s="3" t="inlineStr">
         <is>
           <t>1 de 53</t>
         </is>
       </c>
-      <c r="F55" s="4" t="inlineStr">
+      <c r="F55" s="3" t="inlineStr">
         <is>
           <t>0 de 53</t>
         </is>
       </c>
-      <c r="G55" s="4" t="inlineStr">
+      <c r="G55" s="3" t="inlineStr">
         <is>
           <t>0 de 53</t>
         </is>
       </c>
-      <c r="H55" s="4" t="inlineStr">
+      <c r="H55" s="3" t="inlineStr">
         <is>
           <t>0 de 53</t>
         </is>
       </c>
-      <c r="I55" s="4" t="inlineStr">
+      <c r="I55" s="3" t="inlineStr">
         <is>
           <t>0 de 53</t>
         </is>
       </c>
-      <c r="J55" s="4" t="inlineStr">
+      <c r="J55" s="3" t="inlineStr">
         <is>
           <t>0 de 53</t>
         </is>
       </c>
-      <c r="K55" s="4" t="inlineStr">
+      <c r="K55" s="3" t="inlineStr">
         <is>
           <t>1 de 53</t>
         </is>
       </c>
-      <c r="L55" s="4" t="inlineStr">
+      <c r="L55" s="3" t="inlineStr">
         <is>
           <t>1 de 53</t>
         </is>
       </c>
-      <c r="M55" s="4" t="inlineStr">
+      <c r="M55" s="3" t="inlineStr">
         <is>
           <t>0 de 53</t>
         </is>
       </c>
-      <c r="N55" s="4" t="inlineStr">
+      <c r="N55" s="3" t="inlineStr">
         <is>
           <t>0 de 53</t>
         </is>
@@ -3230,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3311,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3338,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3473,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3500,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3689,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3770,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3824,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3878,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3905,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3959,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4013,7 +4014,7 @@
         <v>2568.3</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4148,7 +4149,7 @@
         <v>2070.12</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4175,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4229,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4283,7 +4284,7 @@
         <v>-21.42</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4310,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4337,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4364,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4391,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4445,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4472,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4499,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -4526,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -4580,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4638,20 +4639,506 @@
       </c>
     </row>
     <row r="55">
-      <c r="C55" s="6" t="n">
+      <c r="C55" s="4" t="n">
         <v>92229.85000000001</v>
       </c>
-      <c r="D55" s="6" t="n">
+      <c r="D55" s="4" t="n">
         <v>100164.78</v>
       </c>
-      <c r="E55" s="6" t="n">
+      <c r="E55" s="4" t="n">
         <v>58794.18</v>
       </c>
-      <c r="F55" s="6" t="n">
+      <c r="F55" s="4" t="n">
         <v>4617</v>
       </c>
-      <c r="G55" s="6" t="n">
-        <v>88000</v>
+      <c r="G55" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="26" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASESOR</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GRUPO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PRESUPUESTO</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>VENTA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>POR CUMPLIR</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CUMPLIMIENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CASTRO ALCIVAR EDA MARIA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>240X120 PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>5820</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1669.25</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>4150.75</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0.2868127147766323</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CASTRO ALCIVAR EDA MARIA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>240X80 PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>13728</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>13728</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CASTRO ALCIVAR EDA MARIA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FREGADEROS DE COCINA</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>646</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>128.74</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>517.26</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.1992879256965945</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CASTRO ALCIVAR EDA MARIA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GRANITO</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>238.32</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>238.32</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CASTRO ALCIVAR EDA MARIA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GRIFERIAS</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>106.82</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>106.82</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CASTRO ALCIVAR EDA MARIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>INODOROS</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CASTRO ALCIVAR EDA MARIA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LAVABOS</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CASTRO ALCIVAR EDA MARIA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CASTRO ALCIVAR EDA MARIA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NO RESURTIBLES</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>1300.5</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>1300.5</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CASTRO ALCIVAR EDA MARIA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OTROS</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CASTRO ALCIVAR EDA MARIA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PANELES DECORATIVOS</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CASTRO ALCIVAR EDA MARIA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PANELES PU</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CASTRO ALCIVAR EDA MARIA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PANELES PVC</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>966</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>966</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CASTRO ALCIVAR EDA MARIA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PIEDRA SINTERIZADA</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>15690</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>2568.3</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>13121.7</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.1636902485659656</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CASTRO ALCIVAR EDA MARIA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45745.689</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>346.47</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45399.219</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.007573828432226697</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CASTRO ALCIVAR EDA MARIA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PUERTAS DE SEGURIDAD</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>1142</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CASTRO ALCIVAR EDA MARIA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SAL SOLUBLE</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>90963.329</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>4712.76</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>86250.56899999999</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.05180944949804993</v>
       </c>
     </row>
   </sheetData>
